--- a/testData/hkor_test.xlsx
+++ b/testData/hkor_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C06C64-6A7B-4047-89DB-D837D12BEF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F735147-3DB6-9743-BAC4-6E7117FDB002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16220" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{4C225EBC-E217-48E2-B71C-D347E4CDAFCD}"/>
   </bookViews>
@@ -631,7 +631,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I14"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/testData/hkor_test.xlsx
+++ b/testData/hkor_test.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F735147-3DB6-9743-BAC4-6E7117FDB002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BCA00A-F95E-B542-B096-F43218CBD156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16220" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{4C225EBC-E217-48E2-B71C-D347E4CDAFCD}"/>
+    <workbookView xWindow="16220" yWindow="-21100" windowWidth="19200" windowHeight="10560" xr2:uid="{4C225EBC-E217-48E2-B71C-D347E4CDAFCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>供應商</t>
   </si>
@@ -150,26 +153,42 @@
   </si>
   <si>
     <t>Bio Acetate#ELBMO3153 165x1450x4.0/1.3</t>
+  </si>
+  <si>
+    <t>TAC00083840</t>
+  </si>
+  <si>
+    <t>Acetate#UN-0139 170x1400X6.0/1.88</t>
+  </si>
+  <si>
+    <t>TAC11154940</t>
+  </si>
+  <si>
+    <t>Acetate#UF2-0290 膠板料170x700x6.0/0.92</t>
+  </si>
+  <si>
+    <t>TAC00066440</t>
+  </si>
+  <si>
+    <t>Acetate#UG-8940 膠板料170x700x4.0/0.62</t>
+  </si>
+  <si>
+    <t>TAC11187850</t>
+  </si>
+  <si>
+    <t>Acetate#UN-0041 170x1400x8.0/2.52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -180,94 +199,21 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF9C0006"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -276,36 +222,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -628,10 +601,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3EF588-A16C-4F1C-B2AD-9B25A86D66D7}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -646,206 +621,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2">
         <v>31.9</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4">
         <v>22.3</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>3.8</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6">
         <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7">
         <v>2.6</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D8" s="7" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8">
         <v>36.299999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D9" s="7" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9">
         <v>37.9</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D10" s="7" t="s">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>1.9</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11">
         <v>2.6</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12">
         <v>30.6</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14">
         <v>8.9</v>
       </c>
     </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18">
+        <v>412.65</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20">
+        <v>74.959999999999994</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-  </conditionalFormatting>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testData/hkor_test.xlsx
+++ b/testData/hkor_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BCA00A-F95E-B542-B096-F43218CBD156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F5093-3AE2-AE44-86A6-00F264EC4277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16220" yWindow="-21100" windowWidth="19200" windowHeight="10560" xr2:uid="{4C225EBC-E217-48E2-B71C-D347E4CDAFCD}"/>
   </bookViews>
@@ -230,68 +230,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">

--- a/testData/hkor_test.xlsx
+++ b/testData/hkor_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F5093-3AE2-AE44-86A6-00F264EC4277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D40181E-A9F8-E047-8E79-AC78B1B75803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16220" yWindow="-21100" windowWidth="19200" windowHeight="10560" xr2:uid="{4C225EBC-E217-48E2-B71C-D347E4CDAFCD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -540,12 +540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3EF588-A16C-4F1C-B2AD-9B25A86D66D7}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -612,73 +613,73 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3">
         <v>27</v>
       </c>
-      <c r="I2">
-        <v>31.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I4">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>74.959999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I5">
-        <v>3.8</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I6">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>22</v>
       </c>
@@ -686,10 +687,10 @@
         <v>33</v>
       </c>
       <c r="I8">
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>22</v>
       </c>
@@ -697,76 +698,76 @@
         <v>33</v>
       </c>
       <c r="I9">
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I11">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I12">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I13">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I14">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+        <v>412.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I15">
-        <v>16.95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>38</v>
       </c>
@@ -774,10 +775,10 @@
         <v>39</v>
       </c>
       <c r="I16">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>38</v>
       </c>
@@ -785,43 +786,53 @@
         <v>39</v>
       </c>
       <c r="I17">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18">
         <v>1.83</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18">
-        <v>412.65</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
         <v>42</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>43</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>0.65</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20">
-        <v>74.959999999999994</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:Q20" xr:uid="{AE3EF588-A16C-4F1C-B2AD-9B25A86D66D7}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="TAC11181440"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q20">
+      <sortCondition descending="1" ref="D1:D20"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/hkor_test.xlsx
+++ b/testData/hkor_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D40181E-A9F8-E047-8E79-AC78B1B75803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BD1AC9-B208-784B-9ECB-2EF06090B997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16220" yWindow="-21100" windowWidth="19200" windowHeight="10560" xr2:uid="{4C225EBC-E217-48E2-B71C-D347E4CDAFCD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>供應商</t>
   </si>
@@ -165,18 +165,6 @@
   </si>
   <si>
     <t>Acetate#UF2-0290 膠板料170x700x6.0/0.92</t>
-  </si>
-  <si>
-    <t>TAC00066440</t>
-  </si>
-  <si>
-    <t>Acetate#UG-8940 膠板料170x700x4.0/0.62</t>
-  </si>
-  <si>
-    <t>TAC11187850</t>
-  </si>
-  <si>
-    <t>Acetate#UN-0041 170x1400x8.0/2.52</t>
   </si>
 </sst>
 </file>
@@ -541,12 +529,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3EF588-A16C-4F1C-B2AD-9B25A86D66D7}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -637,35 +625,35 @@
     </row>
     <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I4">
-        <v>74.959999999999994</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6">
-        <v>2.6</v>
+        <v>36.299999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -676,7 +664,7 @@
         <v>33</v>
       </c>
       <c r="I7">
-        <v>36.299999999999997</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -687,84 +675,84 @@
         <v>33</v>
       </c>
       <c r="I8">
-        <v>37.9</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12">
-        <v>3.8</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I13">
-        <v>22.3</v>
+        <v>412.65</v>
       </c>
     </row>
     <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I14">
-        <v>412.65</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I15">
-        <v>1.3</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -775,7 +763,7 @@
         <v>39</v>
       </c>
       <c r="I16">
-        <v>16.95</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="17" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
@@ -786,51 +774,29 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="18" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I18">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19">
         <v>31.9</v>
       </c>
     </row>
-    <row r="20" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20">
-        <v>0.65</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Q20" xr:uid="{AE3EF588-A16C-4F1C-B2AD-9B25A86D66D7}">
+  <autoFilter ref="A1:Q18" xr:uid="{AE3EF588-A16C-4F1C-B2AD-9B25A86D66D7}">
     <filterColumn colId="3">
       <filters>
-        <filter val="TAC11181440"/>
+        <filter val="TAC00066440"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q20">
-      <sortCondition descending="1" ref="D1:D20"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
+      <sortCondition descending="1" ref="D1:D18"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testData/hkor_test.xlsx
+++ b/testData/hkor_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BD1AC9-B208-784B-9ECB-2EF06090B997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E01234-C993-6342-B514-C5CFF2A33E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16220" yWindow="-21100" windowWidth="19200" windowHeight="10560" xr2:uid="{4C225EBC-E217-48E2-B71C-D347E4CDAFCD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>供應商</t>
   </si>
@@ -159,12 +159,6 @@
   </si>
   <si>
     <t>Acetate#UN-0139 170x1400X6.0/1.88</t>
-  </si>
-  <si>
-    <t>TAC11154940</t>
-  </si>
-  <si>
-    <t>Acetate#UF2-0290 膠板料170x700x6.0/0.92</t>
   </si>
 </sst>
 </file>
@@ -529,12 +523,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3EF588-A16C-4F1C-B2AD-9B25A86D66D7}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="A19:XFD19"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -634,7 +628,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>23</v>
       </c>
@@ -724,24 +718,24 @@
     </row>
     <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I13">
-        <v>412.65</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I14">
-        <v>1.3</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -752,7 +746,7 @@
         <v>39</v>
       </c>
       <c r="I15">
-        <v>16.95</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -763,40 +757,29 @@
         <v>39</v>
       </c>
       <c r="I16">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="17" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I17">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18">
         <v>31.9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q18" xr:uid="{AE3EF588-A16C-4F1C-B2AD-9B25A86D66D7}">
+  <autoFilter ref="A1:Q17" xr:uid="{AE3EF588-A16C-4F1C-B2AD-9B25A86D66D7}">
     <filterColumn colId="3">
       <filters>
-        <filter val="TAC00066440"/>
+        <filter val="TAC11181440"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
-      <sortCondition descending="1" ref="D1:D18"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q17">
+      <sortCondition descending="1" ref="D1:D17"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
